--- a/지각비.xlsx
+++ b/지각비.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungh\Desktop\ITM\algorithm_study_LAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2AEAD3E-7139-456A-B02B-5C80B59F1A63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDCD897-B0CA-4318-A245-7605AD027F8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E9AF0FD-42F0-4CD1-95CC-9D5716AF2B08}"/>
+    <workbookView xWindow="35370" yWindow="3825" windowWidth="21600" windowHeight="11325" xr2:uid="{0E9AF0FD-42F0-4CD1-95CC-9D5716AF2B08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>알고리즘 스터디 지각비 정산</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>합산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한섭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -141,9 +145,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -151,6 +152,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108AB4BE-989D-47DB-817E-E5BBF9A23AF0}">
-  <dimension ref="B1:F5"/>
+  <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -480,23 +484,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -512,7 +516,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(D3:D64)</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
@@ -528,7 +532,24 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
-        <v>44309</v>
+        <v>44316</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
+        <v>44316</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/지각비.xlsx
+++ b/지각비.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungh\Desktop\ITM\algorithm_study_LAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDCD897-B0CA-4318-A245-7605AD027F8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D035C0-8B86-4B55-B68B-375F457610B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35370" yWindow="3825" windowWidth="21600" windowHeight="11325" xr2:uid="{0E9AF0FD-42F0-4CD1-95CC-9D5716AF2B08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E9AF0FD-42F0-4CD1-95CC-9D5716AF2B08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>알고리즘 스터디 지각비 정산</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>신한섭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박강민</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108AB4BE-989D-47DB-817E-E5BBF9A23AF0}">
-  <dimension ref="B1:F6"/>
+  <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -516,7 +520,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(D3:D64)</f>
-        <v>20000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
@@ -549,6 +553,17 @@
         <v>4</v>
       </c>
       <c r="D6" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <v>44323</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
         <v>5000</v>
       </c>
     </row>

--- a/지각비.xlsx
+++ b/지각비.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungh\Desktop\ITM\algorithm_study_LAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D035C0-8B86-4B55-B68B-375F457610B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5747E3DE-5F52-4DBD-B2E1-D5F1563BF829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E9AF0FD-42F0-4CD1-95CC-9D5716AF2B08}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{0E9AF0FD-42F0-4CD1-95CC-9D5716AF2B08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>알고리즘 스터디 지각비 정산</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -475,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108AB4BE-989D-47DB-817E-E5BBF9A23AF0}">
-  <dimension ref="B1:F7"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(D3:D64)</f>
-        <v>25000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
@@ -564,6 +564,28 @@
         <v>8</v>
       </c>
       <c r="D7" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <v>44337</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <v>44344</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
         <v>5000</v>
       </c>
     </row>

--- a/지각비.xlsx
+++ b/지각비.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungh\Desktop\ITM\algorithm_study_LAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5747E3DE-5F52-4DBD-B2E1-D5F1563BF829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA55EAB0-8393-4395-B486-493B75907615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{0E9AF0FD-42F0-4CD1-95CC-9D5716AF2B08}"/>
+    <workbookView xWindow="8952" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{0E9AF0FD-42F0-4CD1-95CC-9D5716AF2B08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>알고리즘 스터디 지각비 정산</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -475,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108AB4BE-989D-47DB-817E-E5BBF9A23AF0}">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(D3:D64)</f>
-        <v>35000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
@@ -586,6 +586,17 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <v>44383</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
         <v>5000</v>
       </c>
     </row>
